--- a/Dataset/Folds/Fold_4/Excel/108.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/108.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="417">
   <si>
     <t>Doi</t>
   </si>
@@ -1334,6 +1334,135 @@
   </si>
   <si>
     <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                           Rubén%López-Bueno%rlopezbu@unizar.es%1,                           Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                           Roksana%Zauder%NULL%1,                           Maria%Skalska%NULL%1,                           Joanna%Jastrzębska%NULL%1,                           Zbigniew%Jastrzębski%NULL%1,                           Felipe B%Schuch%NULL%1,                           Igor%Grabovac%NULL%1,                           Mark A%Tully%NULL%1,                           Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                            H Bart%van der Worp%NULL%2,                            H Bart%van der Worp%NULL%0,                            Valeria%Caso%NULL%1,                            Charlotte%Cordonnier%NULL%1,                            Daniel%Strbian%NULL%2,                            Daniel%Strbian%NULL%0,                            George%Ntaios%NULL%1,                            Peter D%Schellinger%NULL%1,                            Else Charlotte%Sandset%NULL%1,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                            Clare L.%Gillies%NULL%1,                            Francesco%Zaccardi%NULL%0,                            Briana%Coles%NULL%1,                            Melanie J.%Davies%NULL%1,                            Samuel%Seidu%NULL%1,                            Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                            Manuela%Altieri%NULL%1,                            Alvino%Bisecco%NULL%1,                            Alessandro%d’Ambrosio%NULL%1,                            Renato%Docimo%NULL%1,                            Daniela%Buonanno%NULL%1,                            Federica%Matrone%NULL%1,                            Federica%Giuliano%NULL%1,                            Gioacchino%Tedeschi%NULL%1,                            Gabriella%Santangelo%NULL%1,                            Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                            Hang%Li%NULL%1,                            David%Kung%NULL%1,                            Marc%Fisher%NULL%1,                            Ying%Shen%NULL%1,                            Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                            Shawheen%Rezaei%NULL%2,                            Shawheen%Rezaei%NULL%0,                            Nicholas%Alakel%NULL%1,                            Brittany%Gazdag%NULL%1,                            Aditya Ravi%Kumar%NULL%1,                            Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                            Jevto%Erakovic%NULL%1,                            Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                            Marina%Malobabic%NULL%1,                            Vuk%Milosevic%NULL%1,                            Jelena%Stojanov%NULL%1,                            Slobodan%Vojinovic%NULL%1,                            Goran%Stanojevic%NULL%1,                            Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                            Enrico%Di Stasio%NULL%1,                            Guido%Primiano%NULL%1,                            Delfina%Janiri%NULL%1,                            Marco%Luigetti%NULL%1,                            Giovanni%Frisullo%NULL%1,                            Catello%Vollono%NULL%1,                            Matteo%Lucchini%NULL%1,                            Valerio%Brunetti%NULL%1,                            Mauro%Monforte%NULL%1,                            Valeria%Guglielmi%NULL%1,                            Giacomo%Della Marca%NULL%1,                            Amelia%Evoli%NULL%1,                            Camillo%Marra%NULL%1,                            Massimiliano%Mirabella%NULL%1,                            Davide%Quaranta%NULL%1,                            Enzo%Ricci%NULL%1,                            Serenella%Servidei%NULL%1,                            Gabriella%Silvestri%NULL%1,                            Simone%Bellavia%NULL%1,                            Sara%Bortolani%NULL%1,                            Francesco%Bove%NULL%1,                            Riccardo%Di Iorio%NULL%1,                            Andrea%Di Paolantonio%NULL%1,                            Danilo%Genovese%NULL%1,                            Tamara%Ialongo%NULL%1,                            Maria Rita%Lo Monaco%NULL%1,                            Jessica%Marotta%NULL%1,                            Agata Katia%Patanella%NULL%1,                            Alessia%Perna%NULL%1,                            Martina%Petracca%NULL%1,                            Giorgia%Presicce%NULL%1,                            Vittorio%Riso%NULL%1,                            Eleonora%Rollo%NULL%1,                            Angela%Romano%NULL%1,                            Marina%Romozzi%NULL%1,                            Cristina%Sancricca%NULL%1,                            Irene%Scala%NULL%1,                            Gregorio%Spagni%NULL%1,                            Marcella%Solito%NULL%1,                            Luca%Tricoli%NULL%1,                            Paola%Zinzi%NULL%1,                            Paolo%Calabresi%NULL%1,                            Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                            Giuseppe%Battaglia%NULL%2,                            Giuseppe%Battaglia%NULL%0,                            Valerio%Giustino%NULL%1,                            Andrea%Gagliardo%NULL%1,                            Michele%D’Aleo%NULL%1,                            Ottavio%Giannini%NULL%1,                            Antonio%Palma%NULL%1,                            Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                            Rubén%López-Bueno%rlopezbu@unizar.es%1,                            Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                            Roksana%Zauder%NULL%1,                            Maria%Skalska%NULL%1,                            Joanna%Jastrzębska%NULL%1,                            Zbigniew%Jastrzębski%NULL%1,                            Felipe B%Schuch%NULL%1,                            Igor%Grabovac%NULL%1,                            Mark A%Tully%NULL%1,                            Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%1,                             H Bart%van der Worp%NULL%2,                             H Bart%van der Worp%NULL%0,                             Valeria%Caso%NULL%1,                             Charlotte%Cordonnier%NULL%1,                             Daniel%Strbian%NULL%2,                             Daniel%Strbian%NULL%0,                             George%Ntaios%NULL%1,                             Peter D%Schellinger%NULL%1,                             Else Charlotte%Sandset%NULL%1,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%1,                             Clare L.%Gillies%NULL%1,                             Francesco%Zaccardi%NULL%0,                             Briana%Coles%NULL%1,                             Melanie J.%Davies%NULL%1,                             Samuel%Seidu%NULL%1,                             Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%1,                             Manuela%Altieri%NULL%1,                             Alvino%Bisecco%NULL%1,                             Alessandro%d’Ambrosio%NULL%1,                             Renato%Docimo%NULL%1,                             Daniela%Buonanno%NULL%1,                             Federica%Matrone%NULL%1,                             Federica%Giuliano%NULL%1,                             Gioacchino%Tedeschi%NULL%1,                             Gabriella%Santangelo%NULL%1,                             Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%0,                             Hang%Li%NULL%1,                             David%Kung%NULL%1,                             Marc%Fisher%NULL%1,                             Ying%Shen%NULL%1,                             Renyu%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%1,                             Shawheen%Rezaei%NULL%2,                             Shawheen%Rezaei%NULL%0,                             Nicholas%Alakel%NULL%1,                             Brittany%Gazdag%NULL%1,                             Aditya Ravi%Kumar%NULL%1,                             Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%1,                             Jevto%Erakovic%NULL%1,                             Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%1,                             Marina%Malobabic%NULL%1,                             Vuk%Milosevic%NULL%1,                             Jelena%Stojanov%NULL%1,                             Slobodan%Vojinovic%NULL%1,                             Goran%Stanojevic%NULL%1,                             Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%1,                             Enrico%Di Stasio%NULL%1,                             Guido%Primiano%NULL%1,                             Delfina%Janiri%NULL%1,                             Marco%Luigetti%NULL%1,                             Giovanni%Frisullo%NULL%1,                             Catello%Vollono%NULL%1,                             Matteo%Lucchini%NULL%1,                             Valerio%Brunetti%NULL%1,                             Mauro%Monforte%NULL%1,                             Valeria%Guglielmi%NULL%1,                             Giacomo%Della Marca%NULL%1,                             Amelia%Evoli%NULL%1,                             Camillo%Marra%NULL%1,                             Massimiliano%Mirabella%NULL%1,                             Davide%Quaranta%NULL%1,                             Enzo%Ricci%NULL%1,                             Serenella%Servidei%NULL%1,                             Gabriella%Silvestri%NULL%1,                             Simone%Bellavia%NULL%1,                             Sara%Bortolani%NULL%1,                             Francesco%Bove%NULL%1,                             Riccardo%Di Iorio%NULL%1,                             Andrea%Di Paolantonio%NULL%1,                             Danilo%Genovese%NULL%1,                             Tamara%Ialongo%NULL%1,                             Maria Rita%Lo Monaco%NULL%1,                             Jessica%Marotta%NULL%1,                             Agata Katia%Patanella%NULL%1,                             Alessia%Perna%NULL%1,                             Martina%Petracca%NULL%1,                             Giorgia%Presicce%NULL%1,                             Vittorio%Riso%NULL%1,                             Eleonora%Rollo%NULL%1,                             Angela%Romano%NULL%1,                             Marina%Romozzi%NULL%1,                             Cristina%Sancricca%NULL%1,                             Irene%Scala%NULL%1,                             Gregorio%Spagni%NULL%1,                             Marcella%Solito%NULL%1,                             Luca%Tricoli%NULL%1,                             Paola%Zinzi%NULL%1,                             Paolo%Calabresi%NULL%1,                             Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%1,                             Giuseppe%Battaglia%NULL%2,                             Giuseppe%Battaglia%NULL%0,                             Valerio%Giustino%NULL%1,                             Andrea%Gagliardo%NULL%1,                             Michele%D’Aleo%NULL%1,                             Ottavio%Giannini%NULL%1,                             Antonio%Palma%NULL%1,                             Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%1,                             Rubén%López-Bueno%rlopezbu@unizar.es%1,                             Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1,                             Roksana%Zauder%NULL%1,                             Maria%Skalska%NULL%1,                             Joanna%Jastrzębska%NULL%1,                             Zbigniew%Jastrzębski%NULL%1,                             Felipe B%Schuch%NULL%1,                             Igor%Grabovac%NULL%1,                             Mark A%Tully%NULL%1,                             Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diana%Aguiar de Sousa%NULL%0, H Bart%van der Worp%NULL%2, H Bart%van der Worp%NULL%0, Valeria%Caso%NULL%1, Charlotte%Cordonnier%NULL%1, Daniel%Strbian%NULL%2, Daniel%Strbian%NULL%0, George%Ntaios%NULL%1, Peter D%Schellinger%NULL%1, Else Charlotte%Sandset%NULL%1, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>SAGE Publications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Routine care for chronic disease is an ongoing major challenge.
+ We aimed to evaluate the global impact of COVID-19 on routine care for chronic diseases.
+ An online survey was posted 31 March to 23 April 2020 targeted at healthcare professionals.
+ 202 from 47 countries responded.
+ Most reported change in routine care to virtual communication.
+ Diabetes, chronic obstructive pulmonary disease, and hypertension were the most impacted conditions due to reduction in access to care.
+ 80% reported the mental health of their patients worsened during COVID-19. It is important routine care continues in spite of the pandemic, to avoid a rise in non-COVID-19-related morbidity and mortality.
+</t>
+  </si>
+  <si>
+    <t>[Yogini V.%Chudasama%NULL%0, Clare L.%Gillies%NULL%1, Francesco%Zaccardi%NULL%0, Briana%Coles%NULL%1, Melanie J.%Davies%NULL%1, Samuel%Seidu%NULL%1, Kamlesh%Khunti%NULL%0]</t>
+  </si>
+  <si>
+    <t>Diabetes India. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Rocco%Capuano%NULL%0, Manuela%Altieri%NULL%1, Alvino%Bisecco%NULL%1, Alessandro%d’Ambrosio%NULL%1, Renato%Docimo%NULL%1, Daniela%Buonanno%NULL%1, Federica%Matrone%NULL%1, Federica%Giuliano%NULL%1, Gioacchino%Tedeschi%NULL%1, Gabriella%Santangelo%NULL%1, Antonio%Gallo%antonio.gallo@unicampania.it%1]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Farrah J.%Mateen%fmateen@mgh.harvard.edu%0, Shawheen%Rezaei%NULL%2, Shawheen%Rezaei%NULL%0, Nicholas%Alakel%NULL%1, Brittany%Gazdag%NULL%1, Aditya Ravi%Kumar%NULL%1, Andre%Vogel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ljiljana%Radulovic%NULL%0, Jevto%Erakovic%NULL%1, Milovan%Roganovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              RRMS patients had different degrees of fear of COVID-19 disease.
+</t>
+  </si>
+  <si>
+    <t>[Aleksandar%Stojanov%NULL%0, Marina%Malobabic%NULL%1, Vuk%Milosevic%NULL%1, Jelena%Stojanov%NULL%1, Slobodan%Vojinovic%NULL%1, Goran%Stanojevic%NULL%1, Milos%Stevic%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: Neurological sequelae of SARS-CoV-2 infection have already been reported, but there is insufficient data about the impact of the pandemic on the management of the patients with chronic neurological diseases.
+ We aim to analyze the effect of COVID-19 pandemic and social restriction rules on these fragile patients.
+</t>
+  </si>
+  <si>
+    <t>[Carla%Piano%NULL%0, Enrico%Di Stasio%NULL%1, Guido%Primiano%NULL%1, Delfina%Janiri%NULL%1, Marco%Luigetti%NULL%1, Giovanni%Frisullo%NULL%1, Catello%Vollono%NULL%1, Matteo%Lucchini%NULL%1, Valerio%Brunetti%NULL%1, Mauro%Monforte%NULL%1, Valeria%Guglielmi%NULL%1, Giacomo%Della Marca%NULL%1, Amelia%Evoli%NULL%1, Camillo%Marra%NULL%1, Massimiliano%Mirabella%NULL%1, Davide%Quaranta%NULL%1, Enzo%Ricci%NULL%1, Serenella%Servidei%NULL%1, Gabriella%Silvestri%NULL%1, Simone%Bellavia%NULL%1, Sara%Bortolani%NULL%1, Francesco%Bove%NULL%1, Riccardo%Di Iorio%NULL%1, Andrea%Di Paolantonio%NULL%1, Danilo%Genovese%NULL%1, Tamara%Ialongo%NULL%1, Maria Rita%Lo Monaco%NULL%1, Jessica%Marotta%NULL%1, Agata Katia%Patanella%NULL%1, Alessia%Perna%NULL%1, Martina%Petracca%NULL%1, Giorgia%Presicce%NULL%1, Vittorio%Riso%NULL%1, Eleonora%Rollo%NULL%1, Angela%Romano%NULL%1, Marina%Romozzi%NULL%1, Cristina%Sancricca%NULL%1, Irene%Scala%NULL%1, Gregorio%Spagni%NULL%1, Marcella%Solito%NULL%1, Luca%Tricoli%NULL%1, Paola%Zinzi%NULL%1, Paolo%Calabresi%NULL%1, Anna Rita%Bentivoglio%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Vincenzo%Di Stefano%vincenzo19689@gmail.com%0, Giuseppe%Battaglia%NULL%2, Giuseppe%Battaglia%NULL%0, Valerio%Giustino%NULL%1, Andrea%Gagliardo%NULL%1, Michele%D’Aleo%NULL%1, Ottavio%Giannini%NULL%1, Antonio%Palma%NULL%1, Filippo%Brighina%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo F%López-Sánchez%gfls@um.es%0, Rubén%López-Bueno%rlopezbu@unizar.es%1, Alejandro%Gil-Salmerón%alejandro.gil.salmeron@uv.es%1, Roksana%Zauder%NULL%1, Maria%Skalska%NULL%1, Joanna%Jastrzębska%NULL%1, Zbigniew%Jastrzębski%NULL%1, Felipe B%Schuch%NULL%1, Igor%Grabovac%NULL%0, Mark A%Tully%NULL%1, Lee%Smith%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1865,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1748,10 +1877,10 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1894,10 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>400</v>
       </c>
       <c r="E3" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1780,10 +1909,10 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4">
@@ -1797,10 +1926,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1812,10 +1941,10 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>279</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
@@ -1832,7 +1961,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>370</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1844,10 +1973,10 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>114</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6">
@@ -1861,10 +1990,10 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1876,10 +2005,10 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>279</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7">
@@ -1896,7 +2025,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1908,10 +2037,10 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8">
@@ -1925,10 +2054,10 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>409</v>
       </c>
       <c r="E8" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1940,10 +2069,10 @@
         <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9">
@@ -1957,10 +2086,10 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="E9" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1972,10 +2101,10 @@
         <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10">
@@ -1986,25 +2115,25 @@
         <v>43994.0</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>375</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>286</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
         <v>114</v>
@@ -2021,10 +2150,10 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2036,10 +2165,10 @@
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>279</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
@@ -2056,7 +2185,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2068,10 +2197,10 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
